--- a/minmetals/人力资源/03-指标数据标准详细定义（人力）.xlsx
+++ b/minmetals/人力资源/03-指标数据标准详细定义（人力）.xlsx
@@ -361,36 +361,7 @@
     <t xml:space="preserve">博士研究生占比</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">占比维度：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">全集团</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">在岗职工、科技人才整体、高层次科技人才。</t>
-    </r>
+    <t xml:space="preserve">占比维度：全集团在岗职工、科技人才整体、高层次科技人才。</t>
   </si>
   <si>
     <t xml:space="preserve">INX00000006</t>
@@ -420,36 +391,7 @@
     <t xml:space="preserve">35岁及以下占比</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">占比维度：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">全集团</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">在岗职工、科技人才整体、技能人才整体、高层次科技人才。</t>
-    </r>
+    <t xml:space="preserve">占比维度：全集团在岗职工、科技人才整体、技能人才整体、高层次科技人才。</t>
   </si>
   <si>
     <t xml:space="preserve">INX00000010</t>
@@ -809,26 +751,7 @@
     <t xml:space="preserve">INX00000056</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">成本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">效益</t>
-    </r>
+    <t xml:space="preserve">成本效益</t>
   </si>
   <si>
     <t xml:space="preserve">营业总成本</t>
@@ -972,16 +895,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\年m\月d&quot;日　&quot;dddd, "/>
     <numFmt numFmtId="166" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1000,10 +922,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1011,7 +932,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1019,7 +939,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1027,34 +946,30 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1062,7 +977,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1070,35 +984,24 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1217,7 +1120,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1427,6 +1330,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1442,11 +1349,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1569,14 +1476,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1584,67 +1491,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1663,35 +1528,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1703,7 +1544,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:G25"/>
+  <dimension ref="C1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
@@ -1718,6 +1559,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="28.09"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3" t="s">
@@ -1728,6 +1570,8 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1815,7 +1659,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
@@ -1831,7 +1675,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="18" t="n">
         <v>1</v>
       </c>
@@ -1863,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="18" t="n">
         <v>2</v>
       </c>
@@ -1872,7 +1716,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="18" t="n">
         <v>3</v>
       </c>
@@ -1881,7 +1725,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="22" t="n">
         <v>4</v>
       </c>
@@ -1890,7 +1734,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="22" t="n">
         <v>5</v>
       </c>
@@ -1899,7 +1743,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="n">
         <v>6</v>
       </c>
@@ -1908,7 +1752,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="n">
         <v>7</v>
       </c>
@@ -1917,7 +1761,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="n">
         <v>8</v>
       </c>
@@ -1926,8 +1770,8 @@
       <c r="F23" s="24"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C3:G3"/>
@@ -1978,7 +1822,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +1844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
         <v>28</v>
@@ -2009,7 +1853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
         <v>30</v>
@@ -2018,7 +1862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
         <v>32</v>
@@ -2027,7 +1871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
         <v>34</v>
@@ -2036,7 +1880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
         <v>36</v>
@@ -2054,7 +1898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
         <v>40</v>
@@ -2063,7 +1907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
       <c r="B11" s="30" t="s">
         <v>42</v>
@@ -2081,7 +1925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +1945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="32"/>
       <c r="B15" s="30" t="s">
         <v>51</v>
@@ -2110,7 +1954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32"/>
       <c r="B16" s="30" t="s">
         <v>53</v>
@@ -2119,7 +1963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32"/>
       <c r="B17" s="30" t="s">
         <v>55</v>
@@ -2128,7 +1972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32"/>
       <c r="B18" s="30" t="s">
         <v>57</v>
@@ -2137,7 +1981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32"/>
       <c r="B19" s="30" t="s">
         <v>59</v>
@@ -2146,7 +1990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="s">
         <v>61</v>
       </c>
@@ -2157,7 +2001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29"/>
       <c r="B21" s="30" t="s">
         <v>64</v>
@@ -2166,7 +2010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
         <v>66</v>
@@ -2175,7 +2019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
         <v>68</v>
@@ -2193,7 +2037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29"/>
       <c r="B25" s="30" t="s">
         <v>72</v>
@@ -2202,6 +2046,7 @@
         <v>73</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
         <v>74</v>
@@ -2209,7 +2054,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +2065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
         <v>75</v>
       </c>
@@ -2240,7 +2085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29"/>
       <c r="B31" s="30" t="s">
         <v>79</v>
@@ -2249,7 +2094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29"/>
       <c r="B32" s="30" t="s">
         <v>81</v>
@@ -2258,7 +2103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
         <v>83</v>
@@ -2267,7 +2112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
         <v>85</v>
@@ -2276,7 +2121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>87</v>
@@ -2311,8 +2156,8 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2644,7 +2489,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="52" t="s">
         <v>112</v>
       </c>
       <c r="J7" s="46"/>
@@ -2691,7 +2536,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="52" t="s">
         <v>112</v>
       </c>
       <c r="J8" s="46"/>
@@ -2738,7 +2583,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>112</v>
       </c>
       <c r="J9" s="46"/>
@@ -2785,7 +2630,7 @@
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="52" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="46"/>
@@ -2832,7 +2677,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J11" s="46"/>
@@ -2879,7 +2724,7 @@
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J12" s="46"/>
@@ -2926,7 +2771,7 @@
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="46"/>
@@ -2973,7 +2818,7 @@
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J14" s="46"/>
@@ -3020,7 +2865,7 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J15" s="46"/>
@@ -3067,7 +2912,7 @@
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J16" s="46"/>
@@ -3114,7 +2959,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="52" t="s">
         <v>122</v>
       </c>
       <c r="J17" s="46"/>
@@ -3426,7 +3271,7 @@
       </c>
       <c r="W23" s="46"/>
     </row>
-    <row r="24" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="46" t="s">
         <v>153</v>
       </c>
@@ -3475,7 +3320,7 @@
       </c>
       <c r="W24" s="46"/>
     </row>
-    <row r="25" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="46" t="s">
         <v>157</v>
       </c>
@@ -3524,7 +3369,7 @@
       </c>
       <c r="W25" s="46"/>
     </row>
-    <row r="26" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="46" t="s">
         <v>159</v>
       </c>
@@ -3573,7 +3418,7 @@
       </c>
       <c r="W26" s="46"/>
     </row>
-    <row r="27" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="46" t="s">
         <v>161</v>
       </c>
@@ -3622,7 +3467,7 @@
       </c>
       <c r="W27" s="46"/>
     </row>
-    <row r="28" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="46" t="s">
         <v>165</v>
       </c>
@@ -3671,7 +3516,7 @@
       </c>
       <c r="W28" s="46"/>
     </row>
-    <row r="29" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="46" t="s">
         <v>167</v>
       </c>
@@ -3709,7 +3554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="46" t="s">
         <v>169</v>
       </c>
@@ -3899,7 +3744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="46" t="s">
         <v>182</v>
       </c>
@@ -3937,7 +3782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="46" t="s">
         <v>185</v>
       </c>
@@ -3975,7 +3820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="46" t="s">
         <v>188</v>
       </c>
@@ -4013,7 +3858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
         <v>190</v>
       </c>
@@ -4051,7 +3896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
@@ -4089,7 +3934,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
         <v>194</v>
       </c>
@@ -4127,7 +3972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="46" t="s">
         <v>196</v>
       </c>
@@ -4165,7 +4010,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="46" t="s">
         <v>198</v>
       </c>
@@ -4203,7 +4048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="46" t="s">
         <v>200</v>
       </c>
@@ -4241,7 +4086,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="46" t="s">
         <v>204</v>
       </c>
@@ -4279,7 +4124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="46" t="s">
         <v>206</v>
       </c>
@@ -4355,7 +4200,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="46" t="s">
         <v>210</v>
       </c>
@@ -4393,7 +4238,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
         <v>214</v>
       </c>
@@ -4431,7 +4276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
         <v>216</v>
       </c>
@@ -4469,7 +4314,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="46" t="s">
         <v>218</v>
       </c>
@@ -4507,7 +4352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="46" t="s">
         <v>220</v>
       </c>
@@ -4657,7 +4502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
         <v>231</v>
       </c>
@@ -4693,7 +4538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="46" t="s">
         <v>234</v>
       </c>
@@ -4775,7 +4620,7 @@
       <c r="C58" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E58" s="48" t="s">
@@ -4824,7 +4669,7 @@
       <c r="C59" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E59" s="48" t="s">
@@ -4873,7 +4718,7 @@
       <c r="C60" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E60" s="48" t="s">
@@ -4922,7 +4767,7 @@
       <c r="C61" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E61" s="48" t="s">
@@ -4971,7 +4816,7 @@
       <c r="C62" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="48" t="s">
@@ -5020,7 +4865,7 @@
       <c r="C63" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E63" s="48" t="s">
@@ -5069,7 +4914,7 @@
       <c r="C64" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E64" s="48" t="s">
@@ -5118,7 +4963,7 @@
       <c r="C65" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E65" s="48" t="s">
@@ -5167,7 +5012,7 @@
       <c r="C66" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E66" s="48" t="s">
@@ -5216,7 +5061,7 @@
       <c r="C67" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E67" s="48" t="s">
@@ -5265,7 +5110,7 @@
       <c r="C68" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E68" s="48" t="s">
@@ -5304,7 +5149,7 @@
       </c>
       <c r="W68" s="46"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="46" t="s">
         <v>265</v>
       </c>
@@ -5353,7 +5198,7 @@
       </c>
       <c r="W69" s="46"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="46" t="s">
         <v>270</v>
       </c>
@@ -5412,7 +5257,7 @@
       <c r="C71" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E71" s="48" t="s">
@@ -5461,7 +5306,7 @@
       <c r="C72" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E72" s="48" t="s">
@@ -5510,7 +5355,7 @@
       <c r="C73" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E73" s="48" t="s">
@@ -5559,7 +5404,7 @@
       <c r="C74" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="54" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="48" t="s">
@@ -5598,7 +5443,7 @@
       </c>
       <c r="W74" s="46"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="46" t="s">
         <v>282</v>
       </c>
@@ -5647,7 +5492,7 @@
       </c>
       <c r="W75" s="46"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="46" t="s">
         <v>284</v>
       </c>
@@ -5696,7 +5541,7 @@
       </c>
       <c r="W76" s="46"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="46" t="s">
         <v>286</v>
       </c>
@@ -5783,55 +5628,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="76.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
